--- a/data/trans_dic/P36B06_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36B06_R-Provincia-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>66,07; 76,89</t>
+          <t>66,33; 76,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>69,93; 81,15</t>
+          <t>70,68; 80,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>74,43; 84,77</t>
+          <t>74,39; 84,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>75,72; 85,16</t>
+          <t>75,92; 85,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>71,89; 79,72</t>
+          <t>72,16; 79,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>74,64; 81,51</t>
+          <t>75,0; 81,76</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>67,17; 75,14</t>
+          <t>67,54; 75,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>81,45; 88,15</t>
+          <t>81,35; 88,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>82,04; 88,52</t>
+          <t>82,27; 88,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>68,94; 77,02</t>
+          <t>69,61; 77,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>84,66; 90,53</t>
+          <t>84,45; 90,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>88,73; 93,59</t>
+          <t>88,78; 93,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>69,33; 75,29</t>
+          <t>69,35; 75,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>84,34; 88,5</t>
+          <t>84,44; 88,65</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>86,51; 90,5</t>
+          <t>86,5; 90,56</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>75,73; 84,58</t>
+          <t>75,94; 84,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>84,09; 91,34</t>
+          <t>84,16; 91,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>79,51; 87,73</t>
+          <t>79,52; 87,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>86,19; 92,66</t>
+          <t>86,6; 92,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>89,53; 95,5</t>
+          <t>89,52; 95,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>83,19; 90,34</t>
+          <t>82,98; 90,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>82,16; 87,81</t>
+          <t>82,43; 87,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>88,13; 92,57</t>
+          <t>88,29; 92,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>82,15; 87,83</t>
+          <t>82,63; 87,95</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>79,25; 86,85</t>
+          <t>79,05; 87,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>75,78; 82,19</t>
+          <t>75,6; 82,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>75,22; 83,75</t>
+          <t>75,33; 83,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>86,46; 92,53</t>
+          <t>86,7; 92,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>83,02; 88,85</t>
+          <t>83,33; 88,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>82,02; 88,97</t>
+          <t>81,82; 88,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>84,48; 89,08</t>
+          <t>84,09; 89,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>80,49; 84,54</t>
+          <t>80,64; 84,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>80,14; 85,81</t>
+          <t>79,88; 85,82</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>58,23; 72,22</t>
+          <t>58,52; 72,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>67,46; 79,88</t>
+          <t>67,99; 80,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>86,67; 94,57</t>
+          <t>86,69; 94,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>63,7; 77,06</t>
+          <t>63,9; 76,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>82,12; 91,21</t>
+          <t>82,06; 90,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>90,35; 96,73</t>
+          <t>89,88; 96,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>63,26; 72,6</t>
+          <t>63,47; 72,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>77,01; 84,47</t>
+          <t>76,76; 84,44</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>89,82; 95,11</t>
+          <t>89,87; 94,86</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>77,15; 86,53</t>
+          <t>76,84; 85,97</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>85,11; 92,32</t>
+          <t>85,32; 92,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>55,22; 67,35</t>
+          <t>54,93; 67,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>78,57; 87,64</t>
+          <t>78,85; 87,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>84,64; 92,47</t>
+          <t>84,56; 92,32</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>59,04; 70,52</t>
+          <t>59,21; 70,96</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>79,1; 85,92</t>
+          <t>79,45; 85,85</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>85,84; 91,35</t>
+          <t>86,48; 91,59</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>59,49; 67,55</t>
+          <t>58,79; 67,56</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>77,9; 84,33</t>
+          <t>78,11; 84,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>82,17; 88,21</t>
+          <t>82,19; 88,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>68,5; 75,9</t>
+          <t>67,96; 75,66</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>82,7; 88,23</t>
+          <t>82,6; 88,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>85,01; 90,24</t>
+          <t>85,01; 90,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>72,03; 78,7</t>
+          <t>71,67; 78,31</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>81,41; 85,34</t>
+          <t>81,55; 85,69</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>84,33; 88,33</t>
+          <t>84,57; 88,38</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>71,37; 76,14</t>
+          <t>71,36; 76,22</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1455,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>68,79; 75,37</t>
+          <t>68,96; 75,42</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>80,12; 85,67</t>
+          <t>80,02; 85,66</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>83,34; 88,65</t>
+          <t>83,71; 88,75</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>75,98; 81,76</t>
+          <t>75,54; 81,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>83,66; 88,71</t>
+          <t>83,7; 88,64</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>83,69; 88,66</t>
+          <t>83,46; 88,39</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>73,22; 77,79</t>
+          <t>73,16; 77,48</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>82,85; 86,49</t>
+          <t>82,85; 86,45</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>84,55; 87,99</t>
+          <t>84,4; 87,9</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1565,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>74,73; 77,79</t>
+          <t>74,7; 77,74</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>82,08; 84,57</t>
+          <t>82,11; 84,71</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>78,59; 81,36</t>
+          <t>78,63; 81,46</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>80,29; 82,9</t>
+          <t>80,22; 82,89</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>86,53; 88,88</t>
+          <t>86,63; 88,91</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>82,16; 84,62</t>
+          <t>82,06; 84,61</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>77,96; 80,04</t>
+          <t>77,91; 80,0</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>84,8; 86,45</t>
+          <t>84,77; 86,4</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>80,74; 82,65</t>
+          <t>80,76; 82,7</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36B06_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36B06_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>66,33; 76,88</t>
+          <t>65,76; 76,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>70,68; 80,8</t>
+          <t>70,44; 81,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>74,39; 84,81</t>
+          <t>74,87; 84,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>75,92; 85,34</t>
+          <t>75,77; 85,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>72,16; 79,41</t>
+          <t>72,13; 79,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>75,0; 81,76</t>
+          <t>74,74; 81,99</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>67,54; 75,8</t>
+          <t>67,44; 75,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>81,35; 88,18</t>
+          <t>82,05; 88,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>82,27; 88,55</t>
+          <t>82,17; 88,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>69,61; 77,39</t>
+          <t>69,32; 76,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>84,45; 90,25</t>
+          <t>84,75; 90,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>88,78; 93,58</t>
+          <t>88,79; 93,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>69,35; 75,16</t>
+          <t>69,42; 75,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>84,44; 88,65</t>
+          <t>84,27; 88,65</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>86,5; 90,56</t>
+          <t>86,61; 90,68</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>75,94; 84,78</t>
+          <t>75,96; 84,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>84,16; 91,55</t>
+          <t>84,2; 91,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>79,52; 87,59</t>
+          <t>79,32; 87,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>86,6; 92,73</t>
+          <t>85,88; 92,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>89,52; 95,58</t>
+          <t>89,78; 95,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>82,98; 90,32</t>
+          <t>82,73; 90,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>82,43; 87,95</t>
+          <t>81,99; 87,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>88,29; 92,51</t>
+          <t>88,18; 92,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>82,63; 87,95</t>
+          <t>82,48; 87,91</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>79,05; 87,09</t>
+          <t>78,84; 87,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>75,6; 82,45</t>
+          <t>75,52; 81,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>75,33; 83,99</t>
+          <t>75,08; 84,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>86,7; 92,48</t>
+          <t>86,73; 92,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>83,33; 88,58</t>
+          <t>83,17; 88,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>81,82; 88,93</t>
+          <t>82,14; 89,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>84,09; 89,22</t>
+          <t>84,38; 89,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>80,64; 84,62</t>
+          <t>80,77; 84,71</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>79,88; 85,82</t>
+          <t>80,11; 85,6</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>58,52; 72,29</t>
+          <t>58,74; 71,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>67,99; 80,19</t>
+          <t>67,62; 79,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>86,69; 94,66</t>
+          <t>87,13; 94,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>63,9; 76,93</t>
+          <t>63,81; 76,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>82,06; 90,91</t>
+          <t>81,82; 90,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>89,88; 96,44</t>
+          <t>90,44; 96,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>63,47; 72,27</t>
+          <t>63,71; 72,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>76,76; 84,44</t>
+          <t>76,28; 84,46</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>89,87; 94,86</t>
+          <t>89,94; 94,85</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>76,84; 85,97</t>
+          <t>76,75; 86,39</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>85,32; 92,63</t>
+          <t>85,29; 92,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>54,93; 67,37</t>
+          <t>55,36; 67,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>78,85; 87,67</t>
+          <t>78,99; 87,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>84,56; 92,32</t>
+          <t>85,03; 92,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>59,21; 70,96</t>
+          <t>58,63; 70,87</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>79,45; 85,85</t>
+          <t>79,46; 85,62</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>86,48; 91,59</t>
+          <t>86,18; 91,68</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>58,79; 67,56</t>
+          <t>59,01; 67,79</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>78,11; 84,23</t>
+          <t>77,83; 84,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>82,19; 88,06</t>
+          <t>82,15; 87,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>67,96; 75,66</t>
+          <t>68,2; 75,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>82,6; 88,27</t>
+          <t>82,73; 88,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>85,01; 90,09</t>
+          <t>84,99; 90,35</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>71,67; 78,31</t>
+          <t>72,08; 78,64</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>81,55; 85,69</t>
+          <t>81,52; 85,38</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>84,57; 88,38</t>
+          <t>84,37; 88,26</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>71,36; 76,22</t>
+          <t>71,13; 76,33</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1455,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>68,96; 75,42</t>
+          <t>68,8; 75,4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>80,02; 85,66</t>
+          <t>79,83; 85,8</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>83,71; 88,75</t>
+          <t>83,63; 88,65</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>75,54; 81,58</t>
+          <t>75,68; 81,53</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>83,7; 88,64</t>
+          <t>83,78; 88,87</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>83,46; 88,39</t>
+          <t>83,66; 88,69</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>73,16; 77,48</t>
+          <t>73,23; 77,77</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>82,85; 86,45</t>
+          <t>82,92; 86,45</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>84,4; 87,9</t>
+          <t>84,53; 87,92</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1565,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>74,7; 77,74</t>
+          <t>74,74; 77,68</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>82,11; 84,71</t>
+          <t>82,04; 84,79</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>78,63; 81,46</t>
+          <t>78,63; 81,36</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>80,22; 82,89</t>
+          <t>80,33; 82,85</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>86,63; 88,91</t>
+          <t>86,68; 88,93</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>82,06; 84,61</t>
+          <t>82,03; 84,62</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>77,91; 80,0</t>
+          <t>78,01; 79,91</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>84,77; 86,4</t>
+          <t>84,73; 86,46</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>80,76; 82,7</t>
+          <t>80,73; 82,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36B06_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36B06_R-Provincia-trans_dic.xlsx
@@ -637,7 +637,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,73%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>77,5%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,09%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>69,44; 79,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>71,74; 82,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>72,07; 79,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>78,99%</t>
+          <t>82,34%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>86,31%</t>
+          <t>92,76%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>82,66%</t>
+          <t>87,65%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>75,52; 81,86</t>
+          <t>77,47; 86,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>83,17; 88,81</t>
+          <t>89,86; 94,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>80,77; 84,71</t>
+          <t>84,68; 89,81</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">

--- a/data/trans_dic/P36B06_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36B06_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,54 +686,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>65,76; 76,68</t>
+          <t>66,06; 77,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>69,44; 79,64</t>
+          <t>69,32; 79,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>70,44; 81,04</t>
+          <t>70,49; 80,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>74,87; 84,57</t>
+          <t>75,07; 85,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>71,74; 82,41</t>
+          <t>71,79; 82,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>75,77; 85,31</t>
+          <t>75,94; 85,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>72,13; 79,81</t>
+          <t>72,01; 79,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>72,07; 79,66</t>
+          <t>72,3; 79,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>74,74; 81,99</t>
+          <t>74,57; 81,74</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,54 +796,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>67,44; 75,35</t>
+          <t>67,12; 75,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>82,05; 88,45</t>
+          <t>81,72; 88,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>82,17; 88,76</t>
+          <t>82,27; 88,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>69,32; 76,9</t>
+          <t>69,24; 77,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>84,75; 90,62</t>
+          <t>84,62; 90,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>88,79; 93,98</t>
+          <t>88,84; 93,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>69,42; 75,11</t>
+          <t>69,48; 75,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>84,27; 88,65</t>
+          <t>84,19; 88,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>86,61; 90,68</t>
+          <t>86,61; 90,57</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>75,96; 84,78</t>
+          <t>75,67; 85,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>84,2; 91,25</t>
+          <t>84,13; 91,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>79,32; 87,61</t>
+          <t>79,3; 87,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>85,88; 92,46</t>
+          <t>86,18; 92,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>89,78; 95,61</t>
+          <t>89,77; 95,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>82,73; 90,13</t>
+          <t>82,94; 90,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>81,99; 87,78</t>
+          <t>82,43; 88,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>88,18; 92,74</t>
+          <t>88,17; 92,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>82,48; 87,91</t>
+          <t>82,68; 88,08</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>78,84; 87,1</t>
+          <t>79,38; 86,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>77,47; 86,01</t>
+          <t>77,87; 86,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>75,08; 84,0</t>
+          <t>75,71; 83,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>86,73; 92,7</t>
+          <t>86,51; 92,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>89,86; 94,98</t>
+          <t>90,07; 95,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>82,14; 89,42</t>
+          <t>82,14; 89,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>84,38; 89,06</t>
+          <t>84,33; 89,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>84,68; 89,81</t>
+          <t>85,03; 89,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>80,11; 85,6</t>
+          <t>79,98; 85,64</t>
         </is>
       </c>
     </row>
@@ -1125,54 +1126,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>58,74; 71,56</t>
+          <t>58,9; 72,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>67,62; 79,99</t>
+          <t>67,81; 80,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>87,13; 94,57</t>
+          <t>86,64; 94,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>63,81; 76,58</t>
+          <t>63,93; 77,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>81,82; 90,81</t>
+          <t>82,16; 91,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>90,44; 96,74</t>
+          <t>89,89; 96,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>63,71; 72,64</t>
+          <t>63,34; 72,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>76,28; 84,46</t>
+          <t>76,44; 84,45</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>89,94; 94,85</t>
+          <t>89,77; 94,88</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1235,54 +1236,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>76,75; 86,39</t>
+          <t>76,97; 86,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>85,29; 92,68</t>
+          <t>85,17; 92,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>55,36; 67,37</t>
+          <t>55,29; 67,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>78,99; 87,87</t>
+          <t>79,28; 87,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>85,03; 92,89</t>
+          <t>84,4; 92,86</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>58,63; 70,87</t>
+          <t>59,53; 71,26</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>79,46; 85,62</t>
+          <t>79,64; 85,72</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>86,18; 91,68</t>
+          <t>86,19; 91,89</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>59,01; 67,79</t>
+          <t>59,02; 67,63</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>77,83; 84,23</t>
+          <t>78,17; 84,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>82,15; 87,94</t>
+          <t>82,21; 87,7</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>68,2; 75,79</t>
+          <t>68,56; 76,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>82,73; 88,2</t>
+          <t>82,69; 88,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>84,99; 90,35</t>
+          <t>84,96; 90,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>72,08; 78,64</t>
+          <t>71,71; 78,7</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>81,52; 85,38</t>
+          <t>81,48; 85,79</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>84,37; 88,26</t>
+          <t>84,43; 88,43</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>71,13; 76,33</t>
+          <t>71,35; 76,23</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>68,8; 75,4</t>
+          <t>68,64; 75,17</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>79,83; 85,8</t>
+          <t>80,22; 85,63</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>83,63; 88,65</t>
+          <t>83,83; 88,55</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>75,68; 81,53</t>
+          <t>75,86; 81,62</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>83,78; 88,87</t>
+          <t>83,79; 88,84</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>83,66; 88,69</t>
+          <t>83,48; 88,46</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>73,23; 77,77</t>
+          <t>73,11; 77,68</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>82,92; 86,45</t>
+          <t>82,87; 86,54</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>84,53; 87,92</t>
+          <t>84,46; 87,94</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1566,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>74,74; 77,68</t>
+          <t>74,82; 77,73</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>82,04; 84,79</t>
+          <t>82,2; 84,75</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>78,63; 81,36</t>
+          <t>78,54; 81,24</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>80,33; 82,85</t>
+          <t>80,24; 82,89</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>86,68; 88,93</t>
+          <t>86,71; 88,83</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>82,03; 84,62</t>
+          <t>82,12; 84,59</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>78,01; 79,91</t>
+          <t>77,85; 80,03</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>84,73; 86,46</t>
+          <t>84,79; 86,48</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>80,73; 82,71</t>
+          <t>80,71; 82,65</t>
         </is>
       </c>
     </row>
@@ -1634,4 +1635,1619 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>196512</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>220254</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>222238</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>209053</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>220893</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>233251</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>405565</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>441147</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>455490</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>180337; 210739</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>204298; 234385</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>205640; 236113</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>195808; 222831</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>204598; 234238</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>219251; 245844</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>384400; 424665</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>419145; 461486</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>432837; 474422</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>694</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>818</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>847</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>350977</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>430235</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>430183</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>369626</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>460068</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>478612</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>720603</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>890303</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>908795</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>329623; 370712</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>412250; 445532</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>413467; 445231</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>348952; 389055</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>443233; 473313</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>464732; 490823</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>691395; 747898</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>865661; 910904</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>888324; 928927</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>573</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>568</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>257001</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>285474</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>266605</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>301158</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>316283</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>292186</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>558159</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>601756</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>558791</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>241277; 271006</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>272612; 295192</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>252608; 278017</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>289063; 310956</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>305234; 324905</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>278949; 302781</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>539308; 576175</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>585546; 615780</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>541418; 576792</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>647</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>626</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>592</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>299558</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>307943</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>295909</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>334384</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>360776</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>332904</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>633942</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>668719</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>628813</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>284726; 311985</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>291210; 323140</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>280115; 309792</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>321361; 344161</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>350343; 370460</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>318129; 345234</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>615711; 651436</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>648733; 685941</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>605648; 648490</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>133321</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>158376</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>193010</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>146766</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>190930</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>205549</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>280087</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>349306</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>398559</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>119752; 146849</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>144171; 171469</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>182995; 200207</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>132766; 160021</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>180426; 200276</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>196498; 211279</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>260317; 298217</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>330402; 364995</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>385860; 407797</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>470</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>221889</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>243566</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>161463</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>232634</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>248477</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>177583</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>454522</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>492043</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>339046</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>208435; 233906</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>232543; 252829</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>145478; 177107</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>220501; 244032</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>235419; 259026</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>161976; 193909</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>437166; 470576</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>475730; 507204</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>315908; 361999</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>484</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>521</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>528</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>558</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1012</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1079</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>904</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>501150</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>561975</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>471495</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>545646</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>606066</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>520977</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1046796</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1168041</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>992471</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>480781; 519879</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>542343; 578573</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>447568; 497236</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>526963; 562446</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>586939; 622967</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>494914; 543151</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1020314; 1074270</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1140293; 1194322</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>958164; 1023803</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>533</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>593</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>646</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>586</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>647</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>1119</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>1250</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1293</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>535545</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>646457</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>670402</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>617167</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>712366</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>709729</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>1152712</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>1358822</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>1380131</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>509970; 558427</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>624993; 667123</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>651885; 688555</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>593568; 638630</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>690319; 731879</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>686583; 727549</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>1115166; 1184919</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>1328415; 1387272</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>1351440; 1407097</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>2447</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>2659</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>2598</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>2683</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>2890</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>2766</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>5130</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>5549</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>5364</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>2495953</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>2854281</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>2711305</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>2756435</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>3115859</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>2950790</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>5252388</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>5970140</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>5662096</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>2449382; 2544630</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>2812667; 2899943</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>2660576; 2752130</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>2709677; 2799375</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>3078892; 3154466</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>2905980; 2993329</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>5177785; 5322608</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>5912374; 6029929</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>5590496; 5724540</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>